--- a/RestaurentProject/src/main/resources/RestaurantSheet.xlsx
+++ b/RestaurentProject/src/main/resources/RestaurantSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinm\git\Selenium\RestaurentProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6E41AE-7365-449F-92FD-94213E13FDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C496A63-8BD7-4347-A0D9-2802535625BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -43,16 +43,36 @@
   </si>
   <si>
     <t>gauri@gmail.com</t>
+  </si>
+  <si>
+    <t>Le_CAFE</t>
+  </si>
+  <si>
+    <t>pran food</t>
+  </si>
+  <si>
+    <t>devi</t>
+  </si>
+  <si>
+    <t>devi@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -75,13 +95,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -396,8 +419,28 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7879287934</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{84041254-7E99-4902-B6E0-72DD1D94AD87}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>